--- a/doors-detector/results/house7_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
+++ b/doors-detector/results/house7_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7702689687934018</v>
+        <v>0.7787635695805429</v>
       </c>
       <c r="F2" t="n">
         <v>520</v>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3517857142857143</v>
+        <v>0.3438775510204081</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5231591637884133</v>
+        <v>0.5634632683705404</v>
       </c>
       <c r="F4" t="n">
         <v>124</v>
       </c>
       <c r="G4" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H4" t="n">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7860655122105593</v>
+        <v>0.8400745237869007</v>
       </c>
       <c r="F5" t="n">
         <v>520</v>
       </c>
       <c r="G5" t="n">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="H5" t="n">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3460884353741497</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="F6" t="n">
         <v>14</v>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5544470647270645</v>
+        <v>0.4987464063632824</v>
       </c>
       <c r="F7" t="n">
         <v>124</v>
       </c>
       <c r="G7" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H7" t="n">
-        <v>297</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8116556211191792</v>
+        <v>0.7983383522260897</v>
       </c>
       <c r="F8" t="n">
         <v>520</v>
       </c>
       <c r="G8" t="n">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3452380952380952</v>
+        <v>0.3471243042671613</v>
       </c>
       <c r="F9" t="n">
         <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5840914345479317</v>
+        <v>0.5340679007480125</v>
       </c>
       <c r="F10" t="n">
         <v>124</v>
       </c>
       <c r="G10" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>242</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8182981491010622</v>
+        <v>0.7797792810638529</v>
       </c>
       <c r="F11" t="n">
         <v>520</v>
       </c>
       <c r="G11" t="n">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="H11" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.4</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
@@ -824,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5795157089027592</v>
+        <v>0.5851970227961069</v>
       </c>
       <c r="F13" t="n">
         <v>124</v>
       </c>
       <c r="G13" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" t="n">
-        <v>257</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.742538918280065</v>
+        <v>0.7835800032007944</v>
       </c>
       <c r="F14" t="n">
         <v>520</v>
       </c>
       <c r="G14" t="n">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="H14" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3758503401360544</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
       </c>
       <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
         <v>6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5900950333586601</v>
+        <v>0.5862615720718505</v>
       </c>
       <c r="F16" t="n">
         <v>124</v>
       </c>
       <c r="G16" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H16" t="n">
-        <v>276</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7446680915244563</v>
+        <v>0.8081300633125601</v>
       </c>
       <c r="F17" t="n">
         <v>520</v>
       </c>
       <c r="G17" t="n">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="H17" t="n">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3961038961038961</v>
+        <v>0.3273964131106988</v>
       </c>
       <c r="F18" t="n">
         <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5582215444124102</v>
+        <v>0.6116355548027562</v>
       </c>
       <c r="F19" t="n">
         <v>124</v>
       </c>
       <c r="G19" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" t="n">
-        <v>280</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
